--- a/RawData/Post Study/CS715 Post User Study - NM_October 22, 2025_18.35.xlsx
+++ b/RawData/Post Study/CS715 Post User Study - NM_October 22, 2025_18.35.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eason\Desktop\AucklandUni\COMPSCI 715\Data\RawData\Post Study\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eason\Desktop\AucklandUni\CS715-data-analysis\RawData\Post Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A06BEAD3-5BDE-4B01-B0E7-52AAFA127124}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F631205-A0F1-446E-8E2A-DA299D98AEA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -331,9 +331,6 @@
     <t>EN</t>
   </si>
   <si>
-    <t>Gallon Zhou</t>
-  </si>
-  <si>
     <t>Same response.</t>
   </si>
   <si>
@@ -349,9 +346,6 @@
     <t>R_9CZLuuONgaUuUN3</t>
   </si>
   <si>
-    <t>Joshua Tan</t>
-  </si>
-  <si>
     <t>The graphics and UI were nice.</t>
   </si>
   <si>
@@ -370,206 +364,212 @@
     <t>R_4uKvB8IeFgiSAyD</t>
   </si>
   <si>
-    <t xml:space="preserve">Ann Lowe
+    <t>I liked the additional element of fishing making exercising more enjoyable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was a bit hard to get the timing right to get fish </t>
+  </si>
+  <si>
+    <t>I feel like I did below average as my arms are weak</t>
+  </si>
+  <si>
+    <t>Useful for strength training in the arms</t>
+  </si>
+  <si>
+    <t>I put semi effort into it, as I am quite tired</t>
+  </si>
+  <si>
+    <t>A more visual indication of catching fish and how I could catch it</t>
+  </si>
+  <si>
+    <t>R_9QzskTfxeBubCjS</t>
+  </si>
+  <si>
+    <t>GET FISH, ARM DEAD GOOD WORKOUT</t>
+  </si>
+  <si>
+    <t>ARM DEAD, FAMILY DEAD</t>
+  </si>
+  <si>
+    <t>I did pretty good, missed the 5th fish, so my son died but its ok</t>
+  </si>
+  <si>
+    <t>GETTING BUFF, just exercise at home</t>
+  </si>
+  <si>
+    <t>Too much, the fatigue just kept piling up so my arms are dead</t>
+  </si>
+  <si>
+    <t>same as before</t>
+  </si>
+  <si>
+    <t>R_4X6TfwMDpwH1rcN</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>same, hand controller was affecting me, no music was painful, and I feel like i was stranded in the world, i would like to know how many pulls I had left.</t>
+  </si>
+  <si>
+    <t>R_4SEQfxCWVR5mqJ3</t>
+  </si>
+  <si>
+    <t>The UI</t>
+  </si>
+  <si>
+    <t>lack of sound feedback</t>
+  </si>
+  <si>
+    <t>I feel like I did fine.</t>
+  </si>
+  <si>
+    <t>Could improve my strength.</t>
+  </si>
+  <si>
+    <t>7/10 because the weight was decently heavy.</t>
+  </si>
+  <si>
+    <t>more sounds in the game?</t>
+  </si>
+  <si>
+    <t>R_4PGJwHugjnR1xH0</t>
+  </si>
+  <si>
+    <t>Same as before.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when the music is off, it feels a little bit harder. </t>
+  </si>
+  <si>
+    <t>same as beofre</t>
+  </si>
+  <si>
+    <t>R_4KLm5bV0szdaEo1</t>
+  </si>
+  <si>
+    <t>Same as before</t>
+  </si>
+  <si>
+    <t>This time no music</t>
+  </si>
+  <si>
+    <t>Same as last one</t>
+  </si>
+  <si>
+    <t>R_4oiopwETHImRc7T</t>
+  </si>
+  <si>
+    <t>I liked the UI and fishing concept</t>
+  </si>
+  <si>
+    <t>it was a bit difficult to get used to the setup with the VR controllers</t>
+  </si>
+  <si>
+    <t>I feel like i could've performed better</t>
+  </si>
+  <si>
+    <t>It can help take my mind off being tired while exercising</t>
+  </si>
+  <si>
+    <t>I put in quite a lot of effort as I am generally a competitive person</t>
+  </si>
+  <si>
+    <t>Make the controllers easier to hold?</t>
+  </si>
+  <si>
+    <t>R_4j6NDnZppXIuJFM</t>
+  </si>
+  <si>
+    <t>is good for my health, and fun fittness</t>
+  </si>
+  <si>
+    <t>add some other player score maybe?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">petty good </t>
+  </si>
+  <si>
+    <t>gym</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>add a top player list maybe?</t>
+  </si>
+  <si>
+    <t>R_9fwlYOTHEfABBlL</t>
+  </si>
+  <si>
+    <t>It was a familiar excersise</t>
+  </si>
+  <si>
+    <t>Nothing right now</t>
+  </si>
+  <si>
+    <t>Could have done better</t>
+  </si>
+  <si>
+    <t>R_41nXV2BjvtJxNWB</t>
+  </si>
+  <si>
+    <t>It was very interactive! I really enjoyed the fishing aspect of it</t>
+  </si>
+  <si>
+    <t>I felt like the graphics could have been a bit better.</t>
+  </si>
+  <si>
+    <t>I think I definitely couldve done better, I did go gym yesterday so my arms felt slightly tired.</t>
+  </si>
+  <si>
+    <t>It can help me keep my pace when Im lifting weights.</t>
+  </si>
+  <si>
+    <t>I put in quite a lot of effort because I wanted to catch more fish</t>
+  </si>
+  <si>
+    <t>graphics</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3
 </t>
   </si>
   <si>
-    <t>I liked the additional element of fishing making exercising more enjoyable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It was a bit hard to get the timing right to get fish </t>
-  </si>
-  <si>
-    <t>I feel like I did below average as my arms are weak</t>
-  </si>
-  <si>
-    <t>Useful for strength training in the arms</t>
-  </si>
-  <si>
-    <t>I put semi effort into it, as I am quite tired</t>
-  </si>
-  <si>
-    <t>A more visual indication of catching fish and how I could catch it</t>
-  </si>
-  <si>
-    <t>R_9QzskTfxeBubCjS</t>
-  </si>
-  <si>
-    <t>Benjamin Qian</t>
-  </si>
-  <si>
-    <t>GET FISH, ARM DEAD GOOD WORKOUT</t>
-  </si>
-  <si>
-    <t>ARM DEAD, FAMILY DEAD</t>
-  </si>
-  <si>
-    <t>I did pretty good, missed the 5th fish, so my son died but its ok</t>
-  </si>
-  <si>
-    <t>GETTING BUFF, just exercise at home</t>
-  </si>
-  <si>
-    <t>Too much, the fatigue just kept piling up so my arms are dead</t>
-  </si>
-  <si>
-    <t>same as before</t>
-  </si>
-  <si>
-    <t>R_4X6TfwMDpwH1rcN</t>
-  </si>
-  <si>
-    <t>John M</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>same, hand controller was affecting me, no music was painful, and I feel like i was stranded in the world, i would like to know how many pulls I had left.</t>
-  </si>
-  <si>
-    <t>R_4SEQfxCWVR5mqJ3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stephen Fang
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6
 </t>
   </si>
   <si>
-    <t>The UI</t>
-  </si>
-  <si>
-    <t>lack of sound feedback</t>
-  </si>
-  <si>
-    <t>I feel like I did fine.</t>
-  </si>
-  <si>
-    <t>Could improve my strength.</t>
-  </si>
-  <si>
-    <t>7/10 because the weight was decently heavy.</t>
-  </si>
-  <si>
-    <t>more sounds in the game?</t>
-  </si>
-  <si>
-    <t>R_4PGJwHugjnR1xH0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jacob Sun
+    <t xml:space="preserve">7
 </t>
   </si>
   <si>
-    <t>Same as before.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">when the music is off, it feels a little bit harder. </t>
-  </si>
-  <si>
-    <t>same as beofre</t>
-  </si>
-  <si>
-    <t>R_4KLm5bV0szdaEo1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steven
+    <t xml:space="preserve">8
 </t>
   </si>
   <si>
-    <t>Same as before</t>
-  </si>
-  <si>
-    <t>This time no music</t>
-  </si>
-  <si>
-    <t>Same as last one</t>
-  </si>
-  <si>
-    <t>R_4oiopwETHImRc7T</t>
-  </si>
-  <si>
-    <t>Amanda Lowe</t>
-  </si>
-  <si>
-    <t>I liked the UI and fishing concept</t>
-  </si>
-  <si>
-    <t>it was a bit difficult to get used to the setup with the VR controllers</t>
-  </si>
-  <si>
-    <t>I feel like i could've performed better</t>
-  </si>
-  <si>
-    <t>It can help take my mind off being tired while exercising</t>
-  </si>
-  <si>
-    <t>I put in quite a lot of effort as I am generally a competitive person</t>
-  </si>
-  <si>
-    <t>Make the controllers easier to hold?</t>
-  </si>
-  <si>
-    <t>R_4j6NDnZppXIuJFM</t>
-  </si>
-  <si>
-    <t>raymond</t>
-  </si>
-  <si>
-    <t>is good for my health, and fun fittness</t>
-  </si>
-  <si>
-    <t>add some other player score maybe?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">petty good </t>
-  </si>
-  <si>
-    <t>gym</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>add a top player list maybe?</t>
-  </si>
-  <si>
-    <t>R_9fwlYOTHEfABBlL</t>
-  </si>
-  <si>
-    <t>Aidan</t>
-  </si>
-  <si>
-    <t>It was a familiar excersise</t>
-  </si>
-  <si>
-    <t>Nothing right now</t>
-  </si>
-  <si>
-    <t>Could have done better</t>
-  </si>
-  <si>
-    <t>R_41nXV2BjvtJxNWB</t>
-  </si>
-  <si>
-    <t>Owen Li</t>
-  </si>
-  <si>
-    <t>It was very interactive! I really enjoyed the fishing aspect of it</t>
-  </si>
-  <si>
-    <t>I felt like the graphics could have been a bit better.</t>
-  </si>
-  <si>
-    <t>I think I definitely couldve done better, I did go gym yesterday so my arms felt slightly tired.</t>
-  </si>
-  <si>
-    <t>It can help me keep my pace when Im lifting weights.</t>
-  </si>
-  <si>
-    <t>I put in quite a lot of effort because I wanted to catch more fish</t>
-  </si>
-  <si>
-    <t>graphics</t>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
   </si>
 </sst>
 </file>
@@ -934,7 +934,7 @@
   <dimension ref="A1:AX14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1296,100 +1296,100 @@
         <v>101</v>
       </c>
       <c r="R3" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="S3">
+        <v>2</v>
+      </c>
+      <c r="T3">
+        <v>-3</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>2</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>2</v>
+      </c>
+      <c r="Y3">
+        <v>2</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>2</v>
+      </c>
+      <c r="AB3">
+        <v>-3</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>2</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+      <c r="AG3">
+        <v>1</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>-3</v>
+      </c>
+      <c r="AJ3">
+        <v>2</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
+        <v>2</v>
+      </c>
+      <c r="AN3">
+        <v>2</v>
+      </c>
+      <c r="AO3">
+        <v>-3</v>
+      </c>
+      <c r="AP3">
+        <v>-3</v>
+      </c>
+      <c r="AQ3">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="S3">
-        <v>2</v>
-      </c>
-      <c r="T3">
-        <v>-3</v>
-      </c>
-      <c r="U3">
-        <v>2</v>
-      </c>
-      <c r="V3">
-        <v>2</v>
-      </c>
-      <c r="W3">
-        <v>1</v>
-      </c>
-      <c r="X3">
-        <v>2</v>
-      </c>
-      <c r="Y3">
-        <v>2</v>
-      </c>
-      <c r="Z3">
-        <v>1</v>
-      </c>
-      <c r="AA3">
-        <v>2</v>
-      </c>
-      <c r="AB3">
-        <v>-3</v>
-      </c>
-      <c r="AC3">
-        <v>1</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AE3">
-        <v>2</v>
-      </c>
-      <c r="AF3">
-        <v>1</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
-      </c>
-      <c r="AH3">
-        <v>2</v>
-      </c>
-      <c r="AI3">
-        <v>-3</v>
-      </c>
-      <c r="AJ3">
-        <v>2</v>
-      </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
-      <c r="AL3">
-        <v>1</v>
-      </c>
-      <c r="AM3">
-        <v>2</v>
-      </c>
-      <c r="AN3">
-        <v>2</v>
-      </c>
-      <c r="AO3">
-        <v>-3</v>
-      </c>
-      <c r="AP3">
-        <v>-3</v>
-      </c>
-      <c r="AQ3">
-        <v>2</v>
-      </c>
-      <c r="AR3" s="2" t="s">
+      <c r="AS3" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AT3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AU3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AV3" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AU3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV3" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="AW3" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AX3">
         <v>17</v>
@@ -1421,7 +1421,7 @@
         <v>45943.723461145833</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>99</v>
@@ -1448,7 +1448,7 @@
         <v>101</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="S4">
         <v>3</v>
@@ -1526,22 +1526,22 @@
         <v>-1</v>
       </c>
       <c r="AR4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AS4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AT4" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AS4" s="2" t="s">
+      <c r="AU4" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AT4" s="2" t="s">
+      <c r="AV4" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AU4" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AV4" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="AW4" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AX4">
         <v>11</v>
@@ -1573,7 +1573,7 @@
         <v>45945.558357511574</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>99</v>
@@ -1600,7 +1600,7 @@
         <v>101</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -1678,22 +1678,22 @@
         <v>1</v>
       </c>
       <c r="AR5" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AS5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AT5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AU5" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AS5" s="2" t="s">
+      <c r="AV5" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AT5" s="2" t="s">
+      <c r="AW5" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="AU5" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV5" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AW5" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="AX5">
         <v>13</v>
@@ -1725,7 +1725,7 @@
         <v>45945.622123032408</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="J6" s="2" t="s">
         <v>99</v>
@@ -1752,100 +1752,100 @@
         <v>101</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6">
+        <v>-3</v>
+      </c>
+      <c r="X6">
+        <v>-1</v>
+      </c>
+      <c r="Y6">
+        <v>2</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>-3</v>
+      </c>
+      <c r="AC6">
+        <v>2</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>3</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>2</v>
+      </c>
+      <c r="AH6">
+        <v>1</v>
+      </c>
+      <c r="AI6">
+        <v>-3</v>
+      </c>
+      <c r="AJ6">
+        <v>3</v>
+      </c>
+      <c r="AK6">
+        <v>2</v>
+      </c>
+      <c r="AL6">
+        <v>3</v>
+      </c>
+      <c r="AM6">
+        <v>3</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>-3</v>
+      </c>
+      <c r="AP6">
+        <v>-3</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS6" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AU6" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="S6">
-        <v>3</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>2</v>
-      </c>
-      <c r="V6">
-        <v>2</v>
-      </c>
-      <c r="W6">
-        <v>-3</v>
-      </c>
-      <c r="X6">
-        <v>-1</v>
-      </c>
-      <c r="Y6">
-        <v>2</v>
-      </c>
-      <c r="Z6">
-        <v>2</v>
-      </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <v>-3</v>
-      </c>
-      <c r="AC6">
-        <v>2</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>3</v>
-      </c>
-      <c r="AF6">
-        <v>2</v>
-      </c>
-      <c r="AG6">
-        <v>2</v>
-      </c>
-      <c r="AH6">
-        <v>1</v>
-      </c>
-      <c r="AI6">
-        <v>-3</v>
-      </c>
-      <c r="AJ6">
-        <v>3</v>
-      </c>
-      <c r="AK6">
-        <v>2</v>
-      </c>
-      <c r="AL6">
-        <v>3</v>
-      </c>
-      <c r="AM6">
-        <v>3</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>-3</v>
-      </c>
-      <c r="AP6">
-        <v>-3</v>
-      </c>
-      <c r="AQ6">
-        <v>1</v>
-      </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AV6" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AS6" s="2" t="s">
+      <c r="AW6" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="AT6" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AU6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW6" s="2" t="s">
-        <v>129</v>
       </c>
       <c r="AX6">
         <v>18</v>
@@ -1877,7 +1877,7 @@
         <v>45945.667978865742</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>99</v>
@@ -1904,7 +1904,7 @@
         <v>101</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="S7">
         <v>2</v>
@@ -1982,22 +1982,22 @@
         <v>-2</v>
       </c>
       <c r="AR7" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AS7" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="AT7" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AU7" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AV7" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AW7" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="AX7">
         <v>17</v>
@@ -2029,7 +2029,7 @@
         <v>45945.687212870369</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>99</v>
@@ -2056,7 +2056,7 @@
         <v>101</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>135</v>
+        <v>174</v>
       </c>
       <c r="S8">
         <v>2</v>
@@ -2134,22 +2134,22 @@
         <v>1</v>
       </c>
       <c r="AR8" s="2" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="AS8" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="AT8" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="AU8" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AV8" s="2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AW8" s="2" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AX8">
         <v>14</v>
@@ -2181,7 +2181,7 @@
         <v>45946.626087731478</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>99</v>
@@ -2208,7 +2208,7 @@
         <v>101</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>143</v>
+        <v>175</v>
       </c>
       <c r="S9">
         <v>3</v>
@@ -2286,22 +2286,22 @@
         <v>1</v>
       </c>
       <c r="AR9" s="2" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="AS9" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AT9" s="2" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="AU9" s="2" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="AV9" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AW9" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AX9">
         <v>16</v>
@@ -2333,7 +2333,7 @@
         <v>45951.534948043984</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>99</v>
@@ -2360,7 +2360,7 @@
         <v>101</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="S10">
         <v>3</v>
@@ -2438,22 +2438,22 @@
         <v>-1</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AV10" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AW10" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="AX10">
         <v>12</v>
@@ -2485,7 +2485,7 @@
         <v>45951.556126770833</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>99</v>
@@ -2512,7 +2512,7 @@
         <v>101</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="S11">
         <v>3</v>
@@ -2590,22 +2590,22 @@
         <v>-2</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="AT11" s="2" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="AU11" s="2" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AV11" s="2" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="AW11" s="2" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="AX11">
         <v>12</v>
@@ -2637,7 +2637,7 @@
         <v>45951.655074097223</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>99</v>
@@ -2664,7 +2664,7 @@
         <v>101</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="S12">
         <v>3</v>
@@ -2742,22 +2742,22 @@
         <v>3</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AW12" s="2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AX12">
         <v>16</v>
@@ -2789,7 +2789,7 @@
         <v>45952.592825416665</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>99</v>
@@ -2816,7 +2816,7 @@
         <v>101</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="S13">
         <v>2</v>
@@ -2894,13 +2894,13 @@
         <v>-1</v>
       </c>
       <c r="AR13" s="2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="AS13" s="2" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="AT13" s="2" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="AU13" s="2" t="s">
         <v>99</v>
@@ -2941,7 +2941,7 @@
         <v>45952.616455023148</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>99</v>
@@ -2968,7 +2968,7 @@
         <v>101</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="S14">
         <v>2</v>
@@ -3046,22 +3046,22 @@
         <v>1</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="AT14" s="2" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="AU14" s="2" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="AV14" s="2" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="AW14" s="2" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="AX14">
         <v>12</v>
@@ -3071,7 +3071,7 @@
   <autoFilter ref="A2:AX15" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C14 D1:D14 G1:G14 I1:I14 J1:J14 K1:K14 L1:L14 M1:M14 P1:P14 Q1:Q14 R1:R14 AR1:AR14 AS1:AS14 AT1:AT14 AU1:AU14 AV1:AV14 AW1:AW14" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C14 D1:D14 G1:G14 I1:I14 J1:J14 K1:K14 L1:L14 M1:M14 P1:P14 Q1:Q14 R1:R2 AR1:AR14 AS1:AS14 AT1:AT14 AU1:AU14 AV1:AV14 AW1:AW14" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>